--- a/Optimizer_matlab/config/opt_project_config_history.xlsx
+++ b/Optimizer_matlab/config/opt_project_config_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qlib-optimizer\Optimizer_matlab\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD8A95-4F7F-4C32-BB15-C251EC3F7B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3167AEE3-8D37-4810-8573-FC7D31581A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="17010" windowHeight="9840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -2182,7 +2182,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -2225,7 +2225,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="20">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C2" s="20">
         <v>45957</v>
@@ -2248,7 +2248,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="20">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C3" s="20">
         <v>45957</v>
@@ -2271,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="B4" s="20">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C4" s="20">
         <v>45957</v>
@@ -2294,7 +2294,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="20">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C5" s="20">
         <v>45957</v>
@@ -2317,7 +2317,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="20">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C6" s="20">
         <v>45957</v>
@@ -2340,7 +2340,7 @@
         <v>134</v>
       </c>
       <c r="B7" s="20">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C7" s="20">
         <v>45957</v>
